--- a/file/templateFile.xlsx
+++ b/file/templateFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dym/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dym/Documents/SourceCode/HtmlCssJs/NodeJS/qiansister/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>用户侧供水温度(从机组到用户)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>地源侧水泵总耗电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +491,7 @@
     <col min="9" max="9" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,6 +518,12 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/file/templateFile.xlsx
+++ b/file/templateFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dym/Documents/SourceCode/HtmlCssJs/NodeJS/qiansister/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dym/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="2780" windowWidth="26920" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,108 +29,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>用户侧供水温度(从机组到用户)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>用户侧回水温度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从用户到机组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>地源侧供水温差(从机组到地埋管)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>地源侧回水温度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从地埋管到机组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>用户侧流量</t>
-  </si>
-  <si>
-    <t>地源侧流量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组总耗电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户侧水泵总耗电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地源侧水泵总耗电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户侧供水温度(从机组到用户)tui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地源侧供水温差(从机组到地埋管)tgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户侧流量Gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户侧水泵总耗电Pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组总耗电P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地源侧水泵总耗电Pg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地源侧流量Gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户侧回水温度(从用户到机组)tuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地源侧回水温度(从地埋管到机组)tgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,12 +87,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -153,21 +94,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="冬青黑体简体中文 W3"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="冬青黑体简体中文 W3"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Abadi MT Condensed Extra Bold"/>
+      <name val="冬青黑体简体中文 W3"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,9 +138,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,60 +420,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>